--- a/certList.xlsx
+++ b/certList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5757" uniqueCount="2539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5758" uniqueCount="2540">
   <si>
     <t>id</t>
   </si>
@@ -7989,6 +7989,10 @@
   </si>
   <si>
     <t>일본국제교류기금</t>
+  </si>
+  <si>
+    <t>href</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8591,16 +8595,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B955" sqref="B955"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F900" sqref="F900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
@@ -8628,7 +8633,9 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>2539</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -38113,7 +38120,7 @@
       <c r="E844" t="s">
         <v>1790</v>
       </c>
-      <c r="F844" t="s">
+      <c r="G844" t="s">
         <v>2536</v>
       </c>
       <c r="P844" s="3"/>
@@ -38133,7 +38140,7 @@
       <c r="E845" t="s">
         <v>1790</v>
       </c>
-      <c r="F845" t="s">
+      <c r="G845" t="s">
         <v>2536</v>
       </c>
       <c r="P845" s="3"/>
@@ -38153,7 +38160,7 @@
       <c r="E846" t="s">
         <v>1790</v>
       </c>
-      <c r="F846" t="s">
+      <c r="G846" t="s">
         <v>2536</v>
       </c>
       <c r="P846" s="3"/>
@@ -38173,7 +38180,7 @@
       <c r="E847" t="s">
         <v>1790</v>
       </c>
-      <c r="F847" t="s">
+      <c r="G847" t="s">
         <v>2536</v>
       </c>
       <c r="P847" s="3"/>
@@ -38193,7 +38200,7 @@
       <c r="E848" t="s">
         <v>1790</v>
       </c>
-      <c r="F848" t="s">
+      <c r="G848" t="s">
         <v>2536</v>
       </c>
       <c r="P848" s="3"/>
@@ -38213,7 +38220,7 @@
       <c r="E849" t="s">
         <v>1790</v>
       </c>
-      <c r="F849" t="s">
+      <c r="G849" t="s">
         <v>2536</v>
       </c>
       <c r="P849" s="3"/>
@@ -38233,7 +38240,7 @@
       <c r="E850" t="s">
         <v>1790</v>
       </c>
-      <c r="F850" t="s">
+      <c r="G850" t="s">
         <v>2536</v>
       </c>
       <c r="P850" s="3"/>
@@ -38253,7 +38260,7 @@
       <c r="E851" t="s">
         <v>1790</v>
       </c>
-      <c r="F851" t="s">
+      <c r="G851" t="s">
         <v>2536</v>
       </c>
       <c r="P851" s="3"/>
@@ -38273,7 +38280,7 @@
       <c r="E852" t="s">
         <v>1790</v>
       </c>
-      <c r="F852" t="s">
+      <c r="G852" t="s">
         <v>2536</v>
       </c>
       <c r="P852" s="3"/>
@@ -38293,7 +38300,7 @@
       <c r="E853" t="s">
         <v>1790</v>
       </c>
-      <c r="F853" t="s">
+      <c r="G853" t="s">
         <v>2536</v>
       </c>
       <c r="P853" s="3"/>
@@ -38313,7 +38320,7 @@
       <c r="E854" t="s">
         <v>1790</v>
       </c>
-      <c r="F854" t="s">
+      <c r="G854" t="s">
         <v>2536</v>
       </c>
       <c r="P854" s="3"/>
@@ -38333,7 +38340,7 @@
       <c r="E855" t="s">
         <v>1790</v>
       </c>
-      <c r="F855" t="s">
+      <c r="G855" t="s">
         <v>2536</v>
       </c>
       <c r="P855" s="3"/>
@@ -38353,7 +38360,7 @@
       <c r="E856" t="s">
         <v>1790</v>
       </c>
-      <c r="F856" t="s">
+      <c r="G856" t="s">
         <v>2536</v>
       </c>
       <c r="P856" s="3"/>
@@ -38373,7 +38380,7 @@
       <c r="E857" t="s">
         <v>1790</v>
       </c>
-      <c r="F857" t="s">
+      <c r="G857" t="s">
         <v>2536</v>
       </c>
       <c r="P857" s="3"/>
@@ -38393,7 +38400,7 @@
       <c r="E858" t="s">
         <v>1790</v>
       </c>
-      <c r="F858" t="s">
+      <c r="G858" t="s">
         <v>2536</v>
       </c>
       <c r="P858" s="3"/>
@@ -38413,7 +38420,7 @@
       <c r="E859" t="s">
         <v>1790</v>
       </c>
-      <c r="F859" t="s">
+      <c r="G859" t="s">
         <v>2536</v>
       </c>
       <c r="P859" s="3"/>
@@ -38433,7 +38440,7 @@
       <c r="E860" t="s">
         <v>1790</v>
       </c>
-      <c r="F860" t="s">
+      <c r="G860" t="s">
         <v>2536</v>
       </c>
       <c r="P860" s="3"/>
@@ -38453,7 +38460,7 @@
       <c r="E861" t="s">
         <v>1790</v>
       </c>
-      <c r="F861" t="s">
+      <c r="G861" t="s">
         <v>2536</v>
       </c>
       <c r="P861" s="3"/>
@@ -38473,7 +38480,7 @@
       <c r="E862" t="s">
         <v>1790</v>
       </c>
-      <c r="F862" t="s">
+      <c r="G862" t="s">
         <v>2536</v>
       </c>
       <c r="P862" s="3"/>
@@ -38493,7 +38500,7 @@
       <c r="E863" t="s">
         <v>1790</v>
       </c>
-      <c r="F863" t="s">
+      <c r="G863" t="s">
         <v>2536</v>
       </c>
       <c r="P863" s="3"/>
@@ -38513,7 +38520,7 @@
       <c r="E864" t="s">
         <v>1790</v>
       </c>
-      <c r="F864" t="s">
+      <c r="G864" t="s">
         <v>2536</v>
       </c>
       <c r="P864" s="3"/>
@@ -38533,7 +38540,7 @@
       <c r="E865" t="s">
         <v>1790</v>
       </c>
-      <c r="F865" t="s">
+      <c r="G865" t="s">
         <v>2536</v>
       </c>
       <c r="P865" s="3"/>
@@ -38553,7 +38560,7 @@
       <c r="E866" t="s">
         <v>1790</v>
       </c>
-      <c r="F866" t="s">
+      <c r="G866" t="s">
         <v>2536</v>
       </c>
       <c r="P866" s="3"/>
@@ -38573,7 +38580,7 @@
       <c r="E867" t="s">
         <v>1790</v>
       </c>
-      <c r="F867" t="s">
+      <c r="G867" t="s">
         <v>2536</v>
       </c>
       <c r="P867" s="3"/>
@@ -38593,7 +38600,7 @@
       <c r="E868" t="s">
         <v>1792</v>
       </c>
-      <c r="F868" t="s">
+      <c r="G868" t="s">
         <v>2537</v>
       </c>
       <c r="P868" s="3"/>
@@ -38613,7 +38620,7 @@
       <c r="E869" t="s">
         <v>1792</v>
       </c>
-      <c r="F869" t="s">
+      <c r="G869" t="s">
         <v>2537</v>
       </c>
       <c r="P869" s="3"/>
@@ -38633,7 +38640,7 @@
       <c r="E870" t="s">
         <v>1792</v>
       </c>
-      <c r="F870" t="s">
+      <c r="G870" t="s">
         <v>2537</v>
       </c>
       <c r="P870" s="3"/>
@@ -38653,7 +38660,7 @@
       <c r="E871" t="s">
         <v>1792</v>
       </c>
-      <c r="F871" t="s">
+      <c r="G871" t="s">
         <v>2537</v>
       </c>
       <c r="P871" s="3"/>
@@ -38673,7 +38680,7 @@
       <c r="E872" t="s">
         <v>1792</v>
       </c>
-      <c r="F872" t="s">
+      <c r="G872" t="s">
         <v>2537</v>
       </c>
       <c r="P872" s="3"/>
@@ -38693,7 +38700,7 @@
       <c r="E873" t="s">
         <v>1792</v>
       </c>
-      <c r="F873" t="s">
+      <c r="G873" t="s">
         <v>2537</v>
       </c>
       <c r="P873" s="3"/>
@@ -38713,7 +38720,7 @@
       <c r="E874" t="s">
         <v>1792</v>
       </c>
-      <c r="F874" t="s">
+      <c r="G874" t="s">
         <v>2537</v>
       </c>
       <c r="P874" s="3"/>
@@ -39121,7 +39128,7 @@
         <v>2427</v>
       </c>
       <c r="F899">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="G899" t="s">
         <v>2428</v>

--- a/certList.xlsx
+++ b/certList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yunzi\academy\project_crawling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jyj_project\project_crawling_25_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5872" uniqueCount="2618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="2627">
   <si>
     <t>id</t>
   </si>
@@ -8267,6 +8267,35 @@
   <si>
     <t>회계사</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계설계기사</t>
+  </si>
+  <si>
+    <t>생물분류기사</t>
+  </si>
+  <si>
+    <t>생산자동화산업기사</t>
+  </si>
+  <si>
+    <t>소방설비기사</t>
+  </si>
+  <si>
+    <t>소방설비산업기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신재생에너지발전설비기사</t>
+  </si>
+  <si>
+    <t>신재생에너지발전설비산업기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원자력기사</t>
+  </si>
+  <si>
+    <t>전파전자통신기사</t>
   </si>
 </sst>
 </file>
@@ -9020,8 +9049,8 @@
   <dimension ref="A1:R1424"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1029" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1051" sqref="D1051"/>
+      <pane ySplit="1" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1055" sqref="E1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -42443,108 +42472,270 @@
       <c r="R1054" s="3"/>
     </row>
     <row r="1055" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>1012</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C1055">
+        <v>3</v>
+      </c>
+      <c r="D1055">
+        <v>1</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1055" s="3"/>
       <c r="P1055" s="3"/>
       <c r="Q1055" s="3"/>
       <c r="R1055" s="3"/>
     </row>
     <row r="1056" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>1013</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1056">
+        <v>3</v>
+      </c>
+      <c r="D1056">
+        <v>1</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1056" s="3"/>
       <c r="P1056" s="3"/>
       <c r="Q1056" s="3"/>
       <c r="R1056" s="3"/>
     </row>
-    <row r="1057" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>1014</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C1057">
+        <v>4</v>
+      </c>
+      <c r="D1057">
+        <v>1</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1057" s="3"/>
       <c r="P1057" s="3"/>
       <c r="Q1057" s="3"/>
       <c r="R1057" s="3"/>
     </row>
-    <row r="1058" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>1015</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1058">
+        <v>3</v>
+      </c>
+      <c r="D1058">
+        <v>1</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1058" s="3"/>
       <c r="P1058" s="3"/>
       <c r="Q1058" s="3"/>
       <c r="R1058" s="3"/>
     </row>
-    <row r="1059" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>1016</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1059">
+        <v>4</v>
+      </c>
+      <c r="D1059">
+        <v>1</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1059" s="3"/>
       <c r="P1059" s="3"/>
       <c r="Q1059" s="3"/>
       <c r="R1059" s="3"/>
     </row>
-    <row r="1060" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>1017</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1060">
+        <v>3</v>
+      </c>
+      <c r="D1060">
+        <v>1</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1060" s="3"/>
       <c r="P1060" s="3"/>
       <c r="Q1060" s="3"/>
       <c r="R1060" s="3"/>
     </row>
-    <row r="1061" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>1018</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1061">
+        <v>4</v>
+      </c>
+      <c r="D1061">
+        <v>1</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1061" s="3"/>
       <c r="P1061" s="3"/>
       <c r="Q1061" s="3"/>
       <c r="R1061" s="3"/>
     </row>
-    <row r="1062" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <v>1019</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1062">
+        <v>3</v>
+      </c>
+      <c r="D1062">
+        <v>1</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1062" s="3"/>
       <c r="P1062" s="3"/>
       <c r="Q1062" s="3"/>
       <c r="R1062" s="3"/>
     </row>
-    <row r="1063" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <v>1020</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1063">
+        <v>3</v>
+      </c>
+      <c r="D1063">
+        <v>1</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>2514</v>
+      </c>
       <c r="O1063" s="3"/>
       <c r="P1063" s="3"/>
       <c r="Q1063" s="3"/>
       <c r="R1063" s="3"/>
     </row>
-    <row r="1064" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1064" s="3"/>
       <c r="P1064" s="3"/>
       <c r="Q1064" s="3"/>
       <c r="R1064" s="3"/>
     </row>
-    <row r="1065" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1065" s="3"/>
       <c r="P1065" s="3"/>
       <c r="Q1065" s="3"/>
       <c r="R1065" s="3"/>
     </row>
-    <row r="1066" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1066" s="3"/>
       <c r="P1066" s="3"/>
       <c r="Q1066" s="3"/>
       <c r="R1066" s="3"/>
     </row>
-    <row r="1067" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1067" s="3"/>
       <c r="P1067" s="3"/>
       <c r="Q1067" s="3"/>
       <c r="R1067" s="3"/>
     </row>
-    <row r="1068" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1068" s="3"/>
       <c r="P1068" s="3"/>
       <c r="Q1068" s="3"/>
       <c r="R1068" s="3"/>
     </row>
-    <row r="1069" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1069" s="3"/>
       <c r="P1069" s="3"/>
       <c r="Q1069" s="3"/>
       <c r="R1069" s="3"/>
     </row>
-    <row r="1070" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1070" s="3"/>
       <c r="P1070" s="3"/>
       <c r="Q1070" s="3"/>
       <c r="R1070" s="3"/>
     </row>
-    <row r="1071" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1071" s="3"/>
       <c r="P1071" s="3"/>
       <c r="Q1071" s="3"/>
       <c r="R1071" s="3"/>
     </row>
-    <row r="1072" spans="15:18" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:18" x14ac:dyDescent="0.3">
       <c r="O1072" s="3"/>
       <c r="P1072" s="3"/>
       <c r="Q1072" s="3"/>
@@ -44668,100 +44859,100 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1029:B1032 B1022:B1025 B962 B927 B929:B935 B964:B969 B975 B977:B981 B985 B944 B992:B1005 B874:B880 B885:B887 B882:B883 B1008:B1020 B894:B901 B892 B890 B937:B942 B833:B839 B905:B914 B841:B844 B846:B864 B721:B801 B1:B501 B1054:B1048576 B946:B957 B803:B831 B866:B868 B503:B719">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B963">
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B963">
-    <cfRule type="duplicateValues" dxfId="30" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B962">
-    <cfRule type="duplicateValues" dxfId="29" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B958:B960">
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B970:B972">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B973:B974">
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B873">
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B976">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B982">
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B987:B988 B990">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B989">
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K985:XFD985">
-    <cfRule type="duplicateValues" dxfId="20" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B945">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B943">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1006:B1007">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B893">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B891">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B889">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B888">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B936">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B832">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B902">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B903:B904">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B840">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B845">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B871">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B872">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B869">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B870">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C802 F802:XFD802">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B865">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G559" r:id="rId1"/>
